--- a/Electrical/Swarmbot/Swarmbot IO Assignment.xlsx
+++ b/Electrical/Swarmbot/Swarmbot IO Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skippy/Documents/Projects/Swarmbot/Electrical/Swarmbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDA494-70BC-5A4D-A279-00FDF6103909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24D4B5-FCA9-414E-BECC-4F6C20AE8971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="500" windowWidth="22680" windowHeight="17500" xr2:uid="{60A99227-D3FC-F448-A78E-FF7E643B1505}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="27560" windowHeight="17500" xr2:uid="{60A99227-D3FC-F448-A78E-FF7E643B1505}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>ESP 32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>IO0</t>
   </si>
   <si>
-    <t>IO1</t>
-  </si>
-  <si>
     <t>IO2</t>
   </si>
   <si>
-    <t>IO3</t>
-  </si>
-  <si>
     <t>IO4</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>IO35</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>5V Switch 1</t>
   </si>
   <si>
-    <t>Symbol name</t>
-  </si>
-  <si>
     <t>Pin #</t>
   </si>
   <si>
@@ -138,12 +123,6 @@
     <t>Sonar Trigger</t>
   </si>
   <si>
-    <t>Motor Sense 1</t>
-  </si>
-  <si>
-    <t>Motor Sense 2</t>
-  </si>
-  <si>
     <t>Motor PWM 1</t>
   </si>
   <si>
@@ -174,9 +153,6 @@
     <t>Starboard Sensor</t>
   </si>
   <si>
-    <t>Line Sensor LEDs</t>
-  </si>
-  <si>
     <t>Bat I</t>
   </si>
   <si>
@@ -190,6 +166,90 @@
   </si>
   <si>
     <t>Right Switch</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Sensor_VP</t>
+  </si>
+  <si>
+    <t>Sensor_VN</t>
+  </si>
+  <si>
+    <t>GPIO Number</t>
+  </si>
+  <si>
+    <t>ADC Number</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>TXD0</t>
+  </si>
+  <si>
+    <t>RXD0</t>
+  </si>
+  <si>
+    <t>KiCad</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>n/c</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>Line Sensor LED</t>
+  </si>
+  <si>
+    <t>Motor Sensor 1</t>
+  </si>
+  <si>
+    <t>Motor Sensor 2</t>
+  </si>
+  <si>
+    <t>Digital out</t>
+  </si>
+  <si>
+    <t>Digital in</t>
+  </si>
+  <si>
+    <t>Analouge in</t>
+  </si>
+  <si>
+    <t>Digital out (PWM)</t>
   </si>
 </sst>
 </file>
@@ -555,293 +615,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9720321F-9119-EB4D-99C2-316818D77AF4}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
+      <c r="C38">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
